--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2566.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2566.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.020754124699575</v>
+        <v>1.315551519393921</v>
       </c>
       <c r="B1">
-        <v>1.599934400445478</v>
+        <v>1.086208462715149</v>
       </c>
       <c r="C1">
-        <v>3.523352366659265</v>
+        <v>4.003510475158691</v>
       </c>
       <c r="D1">
-        <v>2.099360566774225</v>
+        <v>4.320512771606445</v>
       </c>
       <c r="E1">
-        <v>0.7522950302765695</v>
+        <v>0.8162689208984375</v>
       </c>
     </row>
   </sheetData>
